--- a/artfynd/A 19549-2023.xlsx
+++ b/artfynd/A 19549-2023.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>112253958</v>
+        <v>112253960</v>
       </c>
       <c r="B2" t="n">
-        <v>98535</v>
+        <v>90466</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,21 +696,21 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>222498</v>
+        <v>4769</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -720,10 +720,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>571485</v>
+        <v>571434</v>
       </c>
       <c r="R2" t="n">
-        <v>6703317</v>
+        <v>6703294</v>
       </c>
       <c r="S2" t="n">
         <v>15</v>
@@ -782,10 +782,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>112253960</v>
+        <v>112253958</v>
       </c>
       <c r="B3" t="n">
-        <v>90332</v>
+        <v>98961</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -798,21 +798,21 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>4769</v>
+        <v>222498</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -822,10 +822,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>571434</v>
+        <v>571485</v>
       </c>
       <c r="R3" t="n">
-        <v>6703294</v>
+        <v>6703317</v>
       </c>
       <c r="S3" t="n">
         <v>15</v>

--- a/artfynd/A 19549-2023.xlsx
+++ b/artfynd/A 19549-2023.xlsx
@@ -683,7 +683,7 @@
         <v>112253960</v>
       </c>
       <c r="B2" t="n">
-        <v>90466</v>
+        <v>90480</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -785,7 +785,7 @@
         <v>112253958</v>
       </c>
       <c r="B3" t="n">
-        <v>98961</v>
+        <v>98980</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
